--- a/allocateRecordxlsx.xlsx
+++ b/allocateRecordxlsx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="180" windowWidth="14940" windowHeight="9165" activeTab="3"/>
+    <workbookView xWindow="6300" yWindow="180" windowWidth="14940" windowHeight="9165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="分配" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="113">
   <si>
     <t>交易类型</t>
   </si>
@@ -934,6 +934,10 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>随手记名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -942,7 +946,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1015,6 +1019,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1042,7 +1052,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1074,6 +1084,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3841,10 +3852,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3853,7 +3864,7 @@
     <col min="2" max="256" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.5">
+    <row r="1" spans="1:8" ht="13.5">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3875,8 +3886,11 @@
       <c r="G1" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="21" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3890,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="17" t="s">
         <v>83</v>
       </c>
@@ -3910,7 +3924,7 @@
         <v>43016</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5">
+    <row r="4" spans="1:8" ht="16.5">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
@@ -3924,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.5">
+    <row r="5" spans="1:8" ht="16.5">
       <c r="A5" s="7" t="s">
         <v>55</v>
       </c>
@@ -3938,7 +3952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5">
+    <row r="6" spans="1:8" ht="16.5">
       <c r="A6" s="7" t="s">
         <v>56</v>
       </c>
@@ -3952,7 +3966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5">
+    <row r="7" spans="1:8" ht="16.5">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -3966,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.5">
+    <row r="8" spans="1:8" ht="16.5">
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
@@ -3983,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.5">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="A9" s="7" t="s">
         <v>59</v>
       </c>
@@ -4000,7 +4014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.5">
+    <row r="10" spans="1:8" ht="16.5">
       <c r="A10" s="7" t="s">
         <v>60</v>
       </c>
@@ -4017,7 +4031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.5">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="A11" s="7" t="s">
         <v>61</v>
       </c>
@@ -4034,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.5">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="A12" s="7" t="s">
         <v>62</v>
       </c>
@@ -4051,7 +4065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.5">
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="7" t="s">
         <v>41</v>
       </c>
@@ -4068,7 +4082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.5">
+    <row r="14" spans="1:8" ht="16.5">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
@@ -4088,7 +4102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.5">
+    <row r="15" spans="1:8" ht="16.5">
       <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
@@ -4102,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="16.5">
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="7" t="s">
         <v>35</v>
       </c>
@@ -4855,7 +4869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
